--- a/med/excel_files/Vrachi.xlsx
+++ b/med/excel_files/Vrachi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dns\PycharmProjects\kursach3\medical-app-Artem\medical-app\med\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B66D97C-5FEA-451E-8311-1819A86C6E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA53C588-D36D-492F-AB34-C4A1FD7A7849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="368">
   <si>
     <t>id[pk]</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Имя</t>
   </si>
   <si>
-    <t xml:space="preserve">Фамилия </t>
-  </si>
-  <si>
     <t>Отчество</t>
   </si>
   <si>
@@ -679,17 +676,485 @@
     <t>15:00-17:00</t>
   </si>
   <si>
+    <t>+7(495)477-73-19</t>
+  </si>
+  <si>
+    <t>+7(495)425-87-42</t>
+  </si>
+  <si>
+    <t>+7(495)955-17-81</t>
+  </si>
+  <si>
+    <t>+7(495)079-46-82</t>
+  </si>
+  <si>
+    <t>+7(495)508-92-88</t>
+  </si>
+  <si>
+    <t>+7(495)045-78-78</t>
+  </si>
+  <si>
+    <t>+7(495)330-01-25</t>
+  </si>
+  <si>
+    <t>+7(495)947-63-98</t>
+  </si>
+  <si>
+    <t>+7(495)078-35-70</t>
+  </si>
+  <si>
+    <t>+7(495)153-03-19</t>
+  </si>
+  <si>
+    <t>+7(495)507-72-39</t>
+  </si>
+  <si>
+    <t>+7(495)869-16-80</t>
+  </si>
+  <si>
+    <t>+7(495)580-15-07</t>
+  </si>
+  <si>
+    <t>+7(495)618-93-76</t>
+  </si>
+  <si>
+    <t>+7(495)846-07-53</t>
+  </si>
+  <si>
+    <t>+7(495)236-91-76</t>
+  </si>
+  <si>
+    <t>+7(495)578-17-68</t>
+  </si>
+  <si>
+    <t>+7(495)864-14-00</t>
+  </si>
+  <si>
+    <t>+7(495)563-32-69</t>
+  </si>
+  <si>
+    <t>+7(495)964-13-08</t>
+  </si>
+  <si>
+    <t>+7(495)770-54-80</t>
+  </si>
+  <si>
+    <t>+7(495)544-05-42</t>
+  </si>
+  <si>
+    <t>+7(495)164-33-38</t>
+  </si>
+  <si>
+    <t>+7(495)024-33-32</t>
+  </si>
+  <si>
+    <t>+7(495)027-41-76</t>
+  </si>
+  <si>
+    <t>+7(495)107-65-07</t>
+  </si>
+  <si>
+    <t>+7(495)620-96-92</t>
+  </si>
+  <si>
+    <t>+7(910)538-88-09</t>
+  </si>
+  <si>
+    <t>+7(910)389-76-74</t>
+  </si>
+  <si>
+    <t>+7(910)259-98-31</t>
+  </si>
+  <si>
+    <t>+7(910)235-26-34</t>
+  </si>
+  <si>
+    <t>+7(910)620-42-90</t>
+  </si>
+  <si>
+    <t>+7(910)804-48-80</t>
+  </si>
+  <si>
+    <t>+7(910)400-34-28</t>
+  </si>
+  <si>
+    <t>+7(910)539-26-33</t>
+  </si>
+  <si>
+    <t>+7(910)548-84-84</t>
+  </si>
+  <si>
+    <t>+7(910)887-67-87</t>
+  </si>
+  <si>
+    <t>+7(910)885-21-49</t>
+  </si>
+  <si>
+    <t>+7(910)789-41-38</t>
+  </si>
+  <si>
+    <t>+7(910)764-24-94</t>
+  </si>
+  <si>
+    <t>+7(910)820-61-88</t>
+  </si>
+  <si>
+    <t>+7(910)742-88-16</t>
+  </si>
+  <si>
+    <t>+7(910)951-18-97</t>
+  </si>
+  <si>
+    <t>+7(910)628-11-34</t>
+  </si>
+  <si>
+    <t>+7(910)656-74-47</t>
+  </si>
+  <si>
+    <t>+7(910)990-71-64</t>
+  </si>
+  <si>
+    <t>+7(915)824-34-27</t>
+  </si>
+  <si>
+    <t>+7(915)459-23-87</t>
+  </si>
+  <si>
+    <t>+7(915)650-56-18</t>
+  </si>
+  <si>
+    <t>+7(915)775-54-61</t>
+  </si>
+  <si>
+    <t>+7(915)866-38-41</t>
+  </si>
+  <si>
+    <t>+7(915)915-39-30</t>
+  </si>
+  <si>
+    <t>+7(915)801-41-04</t>
+  </si>
+  <si>
+    <t>+7(915)894-26-65</t>
+  </si>
+  <si>
+    <t>+7(915)318-25-06</t>
+  </si>
+  <si>
+    <t>+7(915)127-05-76</t>
+  </si>
+  <si>
+    <t>+7(915)889-08-39</t>
+  </si>
+  <si>
+    <t>+7(915)348-91-34</t>
+  </si>
+  <si>
+    <t>+7(915)527-03-35</t>
+  </si>
+  <si>
+    <t>+7(915)535-11-15</t>
+  </si>
+  <si>
+    <t>+7(915)949-78-94</t>
+  </si>
+  <si>
+    <t>+7(915)431-57-50</t>
+  </si>
+  <si>
+    <t>+7(915)882-12-76</t>
+  </si>
+  <si>
+    <t>+7(915)119-22-51</t>
+  </si>
+  <si>
+    <t>+7(915)009-89-49</t>
+  </si>
+  <si>
+    <t>+7(915)709-46-06</t>
+  </si>
+  <si>
+    <t>+7(915)996-17-20</t>
+  </si>
+  <si>
+    <t>+7(915)390-65-27</t>
+  </si>
+  <si>
+    <t>+7(915)274-21-46</t>
+  </si>
+  <si>
+    <t>+7(915)564-17-06</t>
+  </si>
+  <si>
+    <t>+7(915)028-84-87</t>
+  </si>
+  <si>
+    <t>+7(915)884-40-20</t>
+  </si>
+  <si>
+    <t>+7(915)945-18-21</t>
+  </si>
+  <si>
+    <t>+7(915)954-66-03</t>
+  </si>
+  <si>
+    <t>+7(915)325-81-26</t>
+  </si>
+  <si>
+    <t>Номер телефона</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>sethbrown@mac.com</t>
+  </si>
+  <si>
+    <t>symbolic@mac.com</t>
+  </si>
+  <si>
+    <t>jhardin@gmail.com</t>
+  </si>
+  <si>
+    <t>eabrown@yahoo.com</t>
+  </si>
+  <si>
+    <t>dhrakar@yahoo.com</t>
+  </si>
+  <si>
+    <t>quantaman@optonline.net</t>
+  </si>
+  <si>
+    <t>yenya@me.com</t>
+  </si>
+  <si>
+    <t>seurat@mac.com</t>
+  </si>
+  <si>
+    <t>kmself@yahoo.com</t>
+  </si>
+  <si>
+    <t>crandall@yahoo.com</t>
+  </si>
+  <si>
+    <t>specprog@verizon.net</t>
+  </si>
+  <si>
+    <t>jdray@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>demmel@comcast.net</t>
+  </si>
+  <si>
+    <t>nelson@mac.com</t>
+  </si>
+  <si>
+    <t>msusa@gmail.com</t>
+  </si>
+  <si>
+    <t>seebs@me.com</t>
+  </si>
+  <si>
+    <t>kjohnson@hotmail.com</t>
+  </si>
+  <si>
+    <t>damian@msn.com</t>
+  </si>
+  <si>
+    <t>wkrebs@hotmail.com</t>
+  </si>
+  <si>
+    <t>rupak@live.com</t>
+  </si>
+  <si>
+    <t>henkp@optonline.net</t>
+  </si>
+  <si>
+    <t>nasarius@msn.com</t>
+  </si>
+  <si>
+    <t>kassiesa@gmail.com</t>
+  </si>
+  <si>
+    <t>pajas@mac.com</t>
+  </si>
+  <si>
+    <t>kildjean@att.net</t>
+  </si>
+  <si>
+    <t>hwestiii@optonline.net</t>
+  </si>
+  <si>
+    <t>bmorrow@outlook.com</t>
+  </si>
+  <si>
+    <t>drhyde@outlook.com</t>
+  </si>
+  <si>
+    <t>rgarton@aol.com</t>
+  </si>
+  <si>
+    <t>zeitlin@yahoo.com</t>
+  </si>
+  <si>
+    <t>mlewan@gmail.com</t>
+  </si>
+  <si>
+    <t>mglee@verizon.net</t>
+  </si>
+  <si>
+    <t>manuals@optonline.net</t>
+  </si>
+  <si>
+    <t>claesjac@yahoo.com</t>
+  </si>
+  <si>
+    <t>jmmuller@comcast.net</t>
+  </si>
+  <si>
+    <t>metzzo@optonline.net</t>
+  </si>
+  <si>
+    <t>pdbaby@icloud.com</t>
+  </si>
+  <si>
+    <t>lydia@icloud.com</t>
+  </si>
+  <si>
+    <t>parksh@yahoo.ca</t>
+  </si>
+  <si>
+    <t>shrapnull@yahoo.com</t>
+  </si>
+  <si>
+    <t>parsimony@yahoo.com</t>
+  </si>
+  <si>
+    <t>rogerspl@live.com</t>
+  </si>
+  <si>
+    <t>roamer@msn.com</t>
+  </si>
+  <si>
+    <t>eminence@yahoo.com</t>
+  </si>
+  <si>
+    <t>eegsa@yahoo.com</t>
+  </si>
+  <si>
+    <t>bhtower@outlook.com</t>
+  </si>
+  <si>
+    <t>gravyface@verizon.net</t>
+  </si>
+  <si>
+    <t>stakasa@hotmail.com</t>
+  </si>
+  <si>
+    <t>staffelb@msn.com</t>
+  </si>
+  <si>
+    <t>ijackson@gmail.com</t>
+  </si>
+  <si>
+    <t>psichel@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>tmaek@msn.com</t>
+  </si>
+  <si>
+    <t>skajan@comcast.net</t>
+  </si>
+  <si>
+    <t>ajlitt@mac.com</t>
+  </si>
+  <si>
+    <t>avalon@aol.com</t>
+  </si>
+  <si>
+    <t>yamla@aol.com</t>
+  </si>
+  <si>
+    <t>fviegas@live.com</t>
+  </si>
+  <si>
+    <t>marcs@mac.com</t>
+  </si>
+  <si>
+    <t>peoplesr@msn.com</t>
+  </si>
+  <si>
+    <t>dkasak@optonline.net</t>
+  </si>
+  <si>
+    <t>peoplesr@att.net</t>
+  </si>
+  <si>
+    <t>keutzer@yahoo.ca</t>
+  </si>
+  <si>
+    <t>jamuir@mac.com</t>
+  </si>
+  <si>
+    <t>jemarch@icloud.com</t>
+  </si>
+  <si>
+    <t>slaff@comcast.net</t>
+  </si>
+  <si>
+    <t>skajan@mac.com</t>
+  </si>
+  <si>
+    <t>onestab@yahoo.com</t>
+  </si>
+  <si>
+    <t>nogin@msn.com</t>
+  </si>
+  <si>
+    <t>kaiser@att.net</t>
+  </si>
+  <si>
+    <t>crusader@me.com</t>
+  </si>
+  <si>
+    <t>sopwith@verizon.net</t>
+  </si>
+  <si>
+    <t>yenya@msn.com</t>
+  </si>
+  <si>
+    <t>cremonini@att.net</t>
+  </si>
+  <si>
+    <t>msusa@yahoo.ca</t>
+  </si>
+  <si>
+    <t>frostman@yahoo.com</t>
+  </si>
+  <si>
     <t>Пн</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -713,10 +1178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -724,8 +1190,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1038,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4553112-A26D-C14D-AED8-4119DE26C473}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,10 +1525,11 @@
     <col min="9" max="9" width="16.140625" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="12" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,2434 +1537,2971 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>366</v>
       </c>
       <c r="G1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" t="s">
         <v>197</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>198</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>199</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>200</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>201</v>
       </c>
-      <c r="L1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="M2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" t="s">
         <v>203</v>
       </c>
-      <c r="K3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="M4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" t="s">
         <v>204</v>
       </c>
-      <c r="I5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>205</v>
       </c>
-      <c r="K5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>217</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" t="s">
         <v>205</v>
       </c>
-      <c r="I6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>206</v>
       </c>
-      <c r="K6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>218</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" t="s">
         <v>206</v>
       </c>
-      <c r="I7" t="s">
-        <v>208</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>207</v>
       </c>
-      <c r="K7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" t="s">
+        <v>208</v>
+      </c>
+      <c r="J8" t="s">
         <v>207</v>
       </c>
-      <c r="I8" t="s">
-        <v>209</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>208</v>
       </c>
-      <c r="K8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>220</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H9" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" t="s">
         <v>208</v>
       </c>
-      <c r="J9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J10" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" t="s">
         <v>210</v>
       </c>
-      <c r="K10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>222</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H11" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" t="s">
         <v>210</v>
       </c>
-      <c r="I11" t="s">
-        <v>212</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>211</v>
       </c>
-      <c r="K11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>223</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" t="s">
         <v>211</v>
       </c>
-      <c r="I12" t="s">
-        <v>213</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>212</v>
       </c>
-      <c r="K12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>224</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="M13" t="s">
+        <v>225</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H14" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" t="s">
         <v>213</v>
       </c>
-      <c r="I14" t="s">
-        <v>213</v>
-      </c>
-      <c r="J14" t="s">
-        <v>214</v>
-      </c>
       <c r="K14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="M14" t="s">
+        <v>226</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" t="s">
+        <v>210</v>
+      </c>
+      <c r="H15" t="s">
         <v>213</v>
       </c>
-      <c r="G15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" t="s">
-        <v>214</v>
-      </c>
       <c r="J15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="M15" t="s">
+        <v>227</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="M16" t="s">
+        <v>228</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" t="s">
         <v>203</v>
       </c>
-      <c r="G17" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" t="s">
-        <v>210</v>
-      </c>
-      <c r="I17" t="s">
-        <v>204</v>
-      </c>
       <c r="K17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="M17" t="s">
+        <v>229</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" t="s">
         <v>204</v>
       </c>
-      <c r="G18" t="s">
-        <v>214</v>
-      </c>
-      <c r="I18" t="s">
-        <v>205</v>
-      </c>
       <c r="J18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M18" t="s">
+        <v>230</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="M19" t="s">
+        <v>231</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" t="s">
         <v>206</v>
       </c>
-      <c r="G20" t="s">
-        <v>204</v>
-      </c>
-      <c r="I20" t="s">
-        <v>207</v>
-      </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="M20" t="s">
+        <v>232</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" t="s">
         <v>207</v>
       </c>
-      <c r="G21" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" t="s">
-        <v>214</v>
-      </c>
-      <c r="I21" t="s">
-        <v>208</v>
-      </c>
       <c r="K21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="M21" t="s">
+        <v>233</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="M22" t="s">
+        <v>234</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="M23" t="s">
+        <v>235</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M24" t="s">
+        <v>236</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="M25" t="s">
+        <v>237</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="M26" t="s">
+        <v>238</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="M27" t="s">
+        <v>239</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M28" t="s">
+        <v>240</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="M29" t="s">
+        <v>241</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="M30" t="s">
+        <v>242</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" t="s">
+        <v>211</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
         <v>208</v>
       </c>
-      <c r="H31" t="s">
-        <v>212</v>
-      </c>
-      <c r="I31" t="s">
-        <v>208</v>
-      </c>
-      <c r="J31" t="s">
-        <v>209</v>
-      </c>
       <c r="K31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="M31" t="s">
+        <v>243</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I32" t="s">
+        <v>208</v>
+      </c>
+      <c r="J32" t="s">
         <v>209</v>
       </c>
-      <c r="J32" t="s">
-        <v>210</v>
-      </c>
       <c r="K32" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="M32" t="s">
+        <v>244</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K33" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="M33" t="s">
+        <v>245</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" t="s">
         <v>211</v>
       </c>
-      <c r="I34" t="s">
-        <v>211</v>
-      </c>
-      <c r="J34" t="s">
-        <v>212</v>
-      </c>
       <c r="K34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="M34" t="s">
+        <v>246</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G35" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" t="s">
         <v>212</v>
       </c>
-      <c r="I35" t="s">
-        <v>212</v>
-      </c>
-      <c r="J35" t="s">
-        <v>213</v>
-      </c>
       <c r="K35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="M35" t="s">
+        <v>247</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
+        <v>202</v>
+      </c>
+      <c r="I36" t="s">
+        <v>212</v>
+      </c>
+      <c r="J36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K36" t="s">
         <v>203</v>
       </c>
-      <c r="I36" t="s">
-        <v>213</v>
-      </c>
-      <c r="J36" t="s">
-        <v>214</v>
-      </c>
-      <c r="K36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>248</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="M37" t="s">
+        <v>249</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" t="s">
+        <v>206</v>
+      </c>
+      <c r="J38" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" t="s">
         <v>205</v>
       </c>
-      <c r="H38" t="s">
-        <v>207</v>
-      </c>
-      <c r="I38" t="s">
-        <v>207</v>
-      </c>
-      <c r="J38" t="s">
-        <v>204</v>
-      </c>
-      <c r="K38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>250</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" t="s">
+        <v>207</v>
+      </c>
+      <c r="I39" t="s">
+        <v>207</v>
+      </c>
+      <c r="K39" t="s">
         <v>206</v>
       </c>
-      <c r="H39" t="s">
-        <v>208</v>
-      </c>
-      <c r="I39" t="s">
-        <v>208</v>
-      </c>
-      <c r="K39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>251</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G40" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" t="s">
+        <v>208</v>
+      </c>
+      <c r="K40" t="s">
         <v>207</v>
       </c>
-      <c r="H40" t="s">
-        <v>209</v>
-      </c>
-      <c r="I40" t="s">
-        <v>209</v>
-      </c>
-      <c r="K40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>252</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F41" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" t="s">
+        <v>207</v>
+      </c>
+      <c r="H41" t="s">
         <v>209</v>
       </c>
-      <c r="G41" t="s">
+      <c r="I41" t="s">
+        <v>209</v>
+      </c>
+      <c r="K41" t="s">
         <v>208</v>
       </c>
-      <c r="H41" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" t="s">
-        <v>210</v>
-      </c>
-      <c r="K41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>253</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F42" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" t="s">
+        <v>208</v>
+      </c>
+      <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I42" t="s">
+        <v>210</v>
+      </c>
+      <c r="K42" t="s">
         <v>209</v>
       </c>
-      <c r="H42" t="s">
-        <v>211</v>
-      </c>
-      <c r="I42" t="s">
-        <v>211</v>
-      </c>
-      <c r="K42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>254</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
+        <v>210</v>
+      </c>
+      <c r="G43" t="s">
+        <v>209</v>
+      </c>
+      <c r="H43" t="s">
         <v>211</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
+        <v>211</v>
+      </c>
+      <c r="K43" t="s">
         <v>210</v>
       </c>
-      <c r="H43" t="s">
-        <v>212</v>
-      </c>
-      <c r="I43" t="s">
-        <v>212</v>
-      </c>
-      <c r="K43" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>255</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" t="s">
+        <v>210</v>
+      </c>
+      <c r="I44" t="s">
         <v>212</v>
       </c>
-      <c r="G44" t="s">
+      <c r="J44" t="s">
+        <v>203</v>
+      </c>
+      <c r="K44" t="s">
         <v>211</v>
       </c>
-      <c r="I44" t="s">
-        <v>213</v>
-      </c>
-      <c r="J44" t="s">
-        <v>204</v>
-      </c>
-      <c r="K44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>256</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" t="s">
+        <v>212</v>
+      </c>
+      <c r="H45" t="s">
         <v>213</v>
       </c>
-      <c r="H45" t="s">
-        <v>214</v>
-      </c>
       <c r="I45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K45" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="M45" t="s">
+        <v>257</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G46" t="s">
+        <v>212</v>
+      </c>
+      <c r="H46" t="s">
+        <v>203</v>
+      </c>
+      <c r="I46" t="s">
+        <v>203</v>
+      </c>
+      <c r="K46" t="s">
         <v>213</v>
       </c>
-      <c r="H46" t="s">
-        <v>204</v>
-      </c>
-      <c r="I46" t="s">
-        <v>204</v>
-      </c>
-      <c r="K46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>258</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="M47" t="s">
+        <v>259</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K48" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M48" t="s">
+        <v>260</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K49" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="M49" t="s">
+        <v>261</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="M50" t="s">
+        <v>262</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K51" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="M51" t="s">
+        <v>263</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J52" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M52" t="s">
+        <v>264</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K53" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="M53" t="s">
+        <v>265</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J54" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="M54" t="s">
+        <v>266</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J55" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="M55" t="s">
+        <v>267</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M56" t="s">
+        <v>268</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K57" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="M57" t="s">
+        <v>269</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="M58" t="s">
+        <v>270</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G59" t="s">
+        <v>203</v>
+      </c>
+      <c r="H59" t="s">
         <v>204</v>
       </c>
-      <c r="H59" t="s">
-        <v>205</v>
-      </c>
       <c r="I59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="M59" t="s">
+        <v>271</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G60" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" t="s">
         <v>205</v>
       </c>
-      <c r="H60" t="s">
-        <v>206</v>
-      </c>
       <c r="I60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M60" t="s">
+        <v>272</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K61" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="M61" t="s">
+        <v>273</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="M62" t="s">
+        <v>274</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K63" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="M63" t="s">
+        <v>275</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G64" t="s">
+        <v>202</v>
+      </c>
+      <c r="H64" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" t="s">
+        <v>202</v>
+      </c>
+      <c r="J64" t="s">
         <v>203</v>
       </c>
-      <c r="H64" t="s">
-        <v>205</v>
-      </c>
-      <c r="I64" t="s">
-        <v>203</v>
-      </c>
-      <c r="J64" t="s">
-        <v>204</v>
-      </c>
       <c r="K64" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M64" t="s">
+        <v>276</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K65" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="M65" t="s">
+        <v>277</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F66" t="s">
+        <v>202</v>
+      </c>
+      <c r="G66" t="s">
         <v>203</v>
       </c>
-      <c r="G66" t="s">
-        <v>204</v>
-      </c>
       <c r="H66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K66" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="M66" t="s">
+        <v>278</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J67" t="s">
+        <v>203</v>
+      </c>
+      <c r="K67" t="s">
         <v>204</v>
       </c>
-      <c r="K67" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>279</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F68" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" t="s">
         <v>205</v>
       </c>
-      <c r="G68" t="s">
-        <v>206</v>
-      </c>
       <c r="I68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J68" t="s">
+        <v>204</v>
+      </c>
+      <c r="K68" t="s">
         <v>205</v>
       </c>
-      <c r="K68" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>280</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F69" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" t="s">
         <v>206</v>
       </c>
-      <c r="G69" t="s">
-        <v>207</v>
-      </c>
       <c r="H69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J69" t="s">
+        <v>205</v>
+      </c>
+      <c r="K69" t="s">
         <v>206</v>
       </c>
-      <c r="K69" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>281</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F70" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" t="s">
         <v>207</v>
       </c>
-      <c r="G70" t="s">
-        <v>208</v>
-      </c>
       <c r="H70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="M70" t="s">
+        <v>282</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F71" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" t="s">
         <v>208</v>
       </c>
-      <c r="G71" t="s">
-        <v>209</v>
-      </c>
       <c r="H71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J71" t="s">
+        <v>207</v>
+      </c>
+      <c r="K71" t="s">
         <v>208</v>
       </c>
-      <c r="K71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>283</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F72" t="s">
+        <v>208</v>
+      </c>
+      <c r="G72" t="s">
         <v>209</v>
       </c>
-      <c r="G72" t="s">
-        <v>210</v>
-      </c>
       <c r="H72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J72" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="M72" t="s">
+        <v>284</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F73" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" t="s">
         <v>210</v>
       </c>
-      <c r="G73" t="s">
-        <v>211</v>
-      </c>
       <c r="H73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J73" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="M73" t="s">
+        <v>285</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F74" t="s">
+        <v>210</v>
+      </c>
+      <c r="H74" t="s">
         <v>211</v>
       </c>
-      <c r="H74" t="s">
-        <v>212</v>
-      </c>
       <c r="I74" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J74" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="M74" t="s">
+        <v>286</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J75" t="s">
+        <v>211</v>
+      </c>
+      <c r="K75" t="s">
         <v>212</v>
       </c>
-      <c r="K75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M75" t="s">
+        <v>287</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F76" t="s">
+        <v>212</v>
+      </c>
+      <c r="G76" t="s">
         <v>213</v>
       </c>
-      <c r="G76" t="s">
-        <v>214</v>
-      </c>
       <c r="I76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J76" t="s">
+        <v>212</v>
+      </c>
+      <c r="K76" t="s">
         <v>213</v>
       </c>
-      <c r="K76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M76" t="s">
+        <v>288</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
+      <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{44A8D177-869F-0041-BFF7-0EC13633366D}"/>
+    <hyperlink ref="N3" r:id="rId2" xr:uid="{5B01892B-66EB-CD47-A6CA-0D29B01E7DCB}"/>
+    <hyperlink ref="N4" r:id="rId3" xr:uid="{D6402AC6-965C-7143-9B4B-5DEB909AB7D4}"/>
+    <hyperlink ref="N5" r:id="rId4" xr:uid="{38736BA2-3E1F-2445-9E98-4E6ABB82B8AE}"/>
+    <hyperlink ref="N6" r:id="rId5" xr:uid="{D87AFB54-AD48-3B4F-A120-27B07D820760}"/>
+    <hyperlink ref="N7" r:id="rId6" xr:uid="{CB273227-60CF-DC42-AE9D-CB996D6CF8FB}"/>
+    <hyperlink ref="N8" r:id="rId7" xr:uid="{DB5BBEF4-1E08-5940-BC53-9C00AB093057}"/>
+    <hyperlink ref="N9" r:id="rId8" xr:uid="{2C5E0B66-8BFF-A245-9379-29AE6C1FC654}"/>
+    <hyperlink ref="N10" r:id="rId9" xr:uid="{98AAD6DB-1E4A-FA43-AB74-F565B50855A8}"/>
+    <hyperlink ref="N11" r:id="rId10" xr:uid="{8A677474-4B23-BD44-A86E-7EAD88A8D51A}"/>
+    <hyperlink ref="N12" r:id="rId11" xr:uid="{CA78673A-8710-9949-9A7F-C193168F81FC}"/>
+    <hyperlink ref="N13" r:id="rId12" xr:uid="{C5C09F8E-9BFE-3442-931A-A7359FCD024E}"/>
+    <hyperlink ref="N14" r:id="rId13" xr:uid="{6E87EA15-975B-C445-A4CC-39FA09ACDF0B}"/>
+    <hyperlink ref="N15" r:id="rId14" xr:uid="{D9FA0B1A-C624-0240-922E-5273099C90B8}"/>
+    <hyperlink ref="N16" r:id="rId15" xr:uid="{3EED3BBD-6C09-A64B-98BC-14B907CD4EF5}"/>
+    <hyperlink ref="N17" r:id="rId16" xr:uid="{22FCF458-249E-A64A-93E4-88D924D8CE18}"/>
+    <hyperlink ref="N18" r:id="rId17" xr:uid="{1E2A8CED-D5B4-9043-B2C5-7825EF857F5D}"/>
+    <hyperlink ref="N19" r:id="rId18" xr:uid="{DC61747B-1F2C-5B46-8B15-8C73012446BE}"/>
+    <hyperlink ref="N20" r:id="rId19" xr:uid="{FB5E7626-F3ED-1841-B0CB-8E736CF97FBC}"/>
+    <hyperlink ref="N21" r:id="rId20" xr:uid="{30F6A346-D582-D743-8469-3731073B3D89}"/>
+    <hyperlink ref="N22" r:id="rId21" xr:uid="{E83084A9-402A-4843-82A4-3AB17ABD93DE}"/>
+    <hyperlink ref="N23" r:id="rId22" xr:uid="{3C2FA23E-938C-BC4A-BCBE-395494FD2610}"/>
+    <hyperlink ref="N24" r:id="rId23" xr:uid="{6EBF492F-D167-7D44-8016-44AD26AF252A}"/>
+    <hyperlink ref="N25" r:id="rId24" xr:uid="{2839542A-831A-AF4A-8336-819F86DE4453}"/>
+    <hyperlink ref="N26" r:id="rId25" xr:uid="{27501678-4110-AD4D-B142-A854C65B35DB}"/>
+    <hyperlink ref="N27" r:id="rId26" xr:uid="{8B42B84B-5A2D-7444-A917-2F493889E38B}"/>
+    <hyperlink ref="N28" r:id="rId27" xr:uid="{96BDA6B1-8C7E-BA45-8570-F1E060E3D8AD}"/>
+    <hyperlink ref="N29" r:id="rId28" xr:uid="{50D5EB9A-2E29-634C-9708-0E5C9376CE4E}"/>
+    <hyperlink ref="N30" r:id="rId29" xr:uid="{5A32010E-C895-BB43-B153-1ACC65C9AE4A}"/>
+    <hyperlink ref="N31" r:id="rId30" xr:uid="{8E638019-1702-8449-821C-930A66C834DF}"/>
+    <hyperlink ref="N32" r:id="rId31" xr:uid="{BFBCE331-9A87-9C4E-BF0F-D9701408A4F2}"/>
+    <hyperlink ref="N33" r:id="rId32" xr:uid="{924C975E-DDFA-4949-878E-D0BD915211D8}"/>
+    <hyperlink ref="N34" r:id="rId33" xr:uid="{DEC69C80-B887-D948-BDB5-C6D8CCF3F1C3}"/>
+    <hyperlink ref="N35" r:id="rId34" xr:uid="{539765DC-A6BA-0A44-977F-92E088DD261D}"/>
+    <hyperlink ref="N36" r:id="rId35" xr:uid="{FF46B419-42CC-2146-A8BA-B98848043746}"/>
+    <hyperlink ref="N37" r:id="rId36" xr:uid="{3034361F-01FB-1442-926C-5F6199F0E28B}"/>
+    <hyperlink ref="N38" r:id="rId37" xr:uid="{A06483C1-690D-2646-B8FE-91E0648DA153}"/>
+    <hyperlink ref="N39" r:id="rId38" xr:uid="{CBC1C9BF-7D68-5744-866B-6F5E4A72B9C9}"/>
+    <hyperlink ref="N40" r:id="rId39" xr:uid="{93BA3ECC-3124-684F-A091-2F0355CD9DF7}"/>
+    <hyperlink ref="N41" r:id="rId40" xr:uid="{5A4059E1-911B-7742-B07F-E69876972559}"/>
+    <hyperlink ref="N42" r:id="rId41" xr:uid="{53869BD3-9D00-C44A-A77F-662B43ED943F}"/>
+    <hyperlink ref="N43" r:id="rId42" xr:uid="{E7FA03E3-6D1E-A442-B48A-85EC8C94BEFA}"/>
+    <hyperlink ref="N44" r:id="rId43" xr:uid="{81FED452-9AEF-C94D-B37C-6934C2B2B886}"/>
+    <hyperlink ref="N45" r:id="rId44" xr:uid="{10C587D2-78B2-1141-9B69-427590DC23EC}"/>
+    <hyperlink ref="N46" r:id="rId45" xr:uid="{CD8832C7-8CA3-0F4F-A41B-74437891C05E}"/>
+    <hyperlink ref="N47" r:id="rId46" xr:uid="{1927FFFC-FA6A-EF40-AB35-8F9298AFB76D}"/>
+    <hyperlink ref="N48" r:id="rId47" xr:uid="{1F076B88-E8C2-BA47-AAD3-5CA208566949}"/>
+    <hyperlink ref="N49" r:id="rId48" xr:uid="{F6F71CEC-FA9F-384A-BB5D-3BA0032A747D}"/>
+    <hyperlink ref="N50" r:id="rId49" xr:uid="{3E04E7CE-0750-BB47-9D77-7AF90D89FB9A}"/>
+    <hyperlink ref="N51" r:id="rId50" xr:uid="{5353CCD4-51EA-9A45-87A3-789841A67048}"/>
+    <hyperlink ref="N52" r:id="rId51" xr:uid="{963E88DB-3170-B749-A6E5-6FADA3B9303A}"/>
+    <hyperlink ref="N53" r:id="rId52" xr:uid="{C1A416F3-1C55-A84F-86F2-43D2F8218895}"/>
+    <hyperlink ref="N54" r:id="rId53" xr:uid="{617A1B53-977C-C648-949B-667691DE89EA}"/>
+    <hyperlink ref="N55" r:id="rId54" xr:uid="{1A74224C-FC29-C644-8DED-C0A0FEBE03CF}"/>
+    <hyperlink ref="N56" r:id="rId55" xr:uid="{19F28D8B-EE23-B24D-8A60-8DADF37E0471}"/>
+    <hyperlink ref="N57" r:id="rId56" xr:uid="{C46B56FC-A785-9E42-AF8A-8123ABB7597D}"/>
+    <hyperlink ref="N58" r:id="rId57" xr:uid="{F4DCBCD8-B642-8048-926E-85CA27D3AE79}"/>
+    <hyperlink ref="N59" r:id="rId58" xr:uid="{BFF86736-084B-B64A-9132-B939FFCE73D4}"/>
+    <hyperlink ref="N60" r:id="rId59" xr:uid="{FDA7AFA0-C9FA-7242-B026-90D6329498FF}"/>
+    <hyperlink ref="N61" r:id="rId60" xr:uid="{CC8CF25B-BABE-134A-845E-12FA2E35EB40}"/>
+    <hyperlink ref="N62" r:id="rId61" xr:uid="{BE47C36A-60D6-FE42-B5E7-D3E8DFCAA0D6}"/>
+    <hyperlink ref="N63" r:id="rId62" xr:uid="{7563D4B4-3391-0641-ADE0-E29C14D65EDE}"/>
+    <hyperlink ref="N64" r:id="rId63" xr:uid="{2DC7D31C-CDED-E247-9D12-6AD49C78528C}"/>
+    <hyperlink ref="N65" r:id="rId64" xr:uid="{5D3F911F-E377-DC4F-9E61-13BD1D7DE05B}"/>
+    <hyperlink ref="N66" r:id="rId65" xr:uid="{9AF80353-CED0-1F4D-87B7-B9D0FFAEA03B}"/>
+    <hyperlink ref="N67" r:id="rId66" xr:uid="{6BA30F3B-3777-9347-B3BB-4C5D3884EB13}"/>
+    <hyperlink ref="N68" r:id="rId67" xr:uid="{68CD6B4C-94BA-4440-A591-235B43C79B4E}"/>
+    <hyperlink ref="N69" r:id="rId68" xr:uid="{092E5D01-6118-8140-B950-5EBF3CC3E909}"/>
+    <hyperlink ref="N70" r:id="rId69" xr:uid="{9E93898F-FA71-ED4D-AD57-479ACB3B511C}"/>
+    <hyperlink ref="N71" r:id="rId70" xr:uid="{C261E462-26DD-734B-8C8D-764B3767302B}"/>
+    <hyperlink ref="N72" r:id="rId71" xr:uid="{79CC5403-74CA-BF49-BA28-CEF96A3AB177}"/>
+    <hyperlink ref="N73" r:id="rId72" xr:uid="{29A9AB16-E068-6241-99B4-7533403E3D4A}"/>
+    <hyperlink ref="N74" r:id="rId73" xr:uid="{742F97E6-9D5B-AA47-8C1A-0FA64899EB16}"/>
+    <hyperlink ref="N75" r:id="rId74" xr:uid="{AE3BA337-538D-F947-82B7-7ACC00225163}"/>
+    <hyperlink ref="N76" r:id="rId75" xr:uid="{E5C90978-485A-D54D-8337-BA8D919FB9D7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/med/excel_files/Vrachi.xlsx
+++ b/med/excel_files/Vrachi.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dns\PycharmProjects\kursach3\medical-app-Artem\medical-app\med\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA53C588-D36D-492F-AB34-C4A1FD7A7849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A49C1F1-8585-47F9-ABF3-1E886A6E667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$S$2:$S$76</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="442">
   <si>
     <t>id[pk]</t>
   </si>
@@ -1132,10 +1135,232 @@
     <t>frostman@yahoo.com</t>
   </si>
   <si>
+    <t>Клиники</t>
+  </si>
+  <si>
+    <t>1,5,9</t>
+  </si>
+  <si>
+    <t>2,4,6</t>
+  </si>
+  <si>
+    <t>1,6,11</t>
+  </si>
+  <si>
+    <t>1,8,10</t>
+  </si>
+  <si>
+    <t>2,7,9</t>
+  </si>
+  <si>
+    <t>2,13,14</t>
+  </si>
+  <si>
+    <t>3,5,9</t>
+  </si>
+  <si>
+    <t>4,7,9</t>
+  </si>
+  <si>
+    <t>11,12,13</t>
+  </si>
+  <si>
+    <t>14,16,19</t>
+  </si>
+  <si>
+    <t>1,7,17</t>
+  </si>
+  <si>
+    <t>1,16,18</t>
+  </si>
+  <si>
+    <t>4,9,15</t>
+  </si>
+  <si>
+    <t>15,17,18</t>
+  </si>
+  <si>
+    <t>7,11,12</t>
+  </si>
+  <si>
+    <t>6,8,9</t>
+  </si>
+  <si>
+    <t>5,7,19</t>
+  </si>
+  <si>
+    <t>13,14,17</t>
+  </si>
+  <si>
+    <t>1,8,9</t>
+  </si>
+  <si>
+    <t>1,10,13</t>
+  </si>
+  <si>
+    <t>5,15,17</t>
+  </si>
+  <si>
+    <t>6,17,19</t>
+  </si>
+  <si>
+    <t>13,14,15</t>
+  </si>
+  <si>
+    <t>12,17,18</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>1,6,13,14</t>
+  </si>
+  <si>
+    <t>4,8,9,10</t>
+  </si>
+  <si>
+    <t>7,8,9</t>
+  </si>
+  <si>
+    <t>1,13,15,19</t>
+  </si>
+  <si>
+    <t>2,7,9,10,11</t>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+  </si>
+  <si>
+    <t>17,18,19</t>
+  </si>
+  <si>
+    <t>3,5,7,9</t>
+  </si>
+  <si>
+    <t>2,8,10,11</t>
+  </si>
+  <si>
+    <t>13,14,19</t>
+  </si>
+  <si>
+    <t>2,5,6,7</t>
+  </si>
+  <si>
+    <t>5,9,13</t>
+  </si>
+  <si>
+    <t>7,8,9,11</t>
+  </si>
+  <si>
+    <t>2,7,8,15,17</t>
+  </si>
+  <si>
+    <t>2,6,7</t>
+  </si>
+  <si>
+    <t>5,8,9</t>
+  </si>
+  <si>
+    <t>4,6,10</t>
+  </si>
+  <si>
+    <t>15,16,19</t>
+  </si>
+  <si>
+    <t>5,8,9,17</t>
+  </si>
+  <si>
+    <t>2,5,15</t>
+  </si>
+  <si>
+    <t>3,4,8,11</t>
+  </si>
+  <si>
+    <t>4,7,8,9</t>
+  </si>
+  <si>
+    <t>6,16,17</t>
+  </si>
+  <si>
+    <t>1,3,7,9,14</t>
+  </si>
+  <si>
+    <t>3,8,9,18</t>
+  </si>
+  <si>
+    <t>1,6,7</t>
+  </si>
+  <si>
+    <t>3,6,7,8</t>
+  </si>
+  <si>
+    <t>2,4,14,15</t>
+  </si>
+  <si>
+    <t>1,11,19</t>
+  </si>
+  <si>
+    <t>3,6,9,11</t>
+  </si>
+  <si>
+    <t>4,5,7</t>
+  </si>
+  <si>
+    <t>4,9,11,14</t>
+  </si>
+  <si>
+    <t>13,15,17,19</t>
+  </si>
+  <si>
+    <t>4,9,11</t>
+  </si>
+  <si>
+    <t>3,4,6</t>
+  </si>
+  <si>
+    <t>7,13,14,16</t>
+  </si>
+  <si>
+    <t>6,9,11,17</t>
+  </si>
+  <si>
+    <t>13,14,15,16</t>
+  </si>
+  <si>
+    <t>2,6,8,13</t>
+  </si>
+  <si>
+    <t>1,7,9,15</t>
+  </si>
+  <si>
+    <t>2,8,9,13</t>
+  </si>
+  <si>
+    <t>2,7,13</t>
+  </si>
+  <si>
+    <t>3,7,9</t>
+  </si>
+  <si>
+    <t>4,9,10</t>
+  </si>
+  <si>
+    <t>Срок действия</t>
+  </si>
+  <si>
+    <t>Стаж</t>
+  </si>
+  <si>
+    <t>Номер медицинской лицензии</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
     <t>Пн</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
   </si>
 </sst>
 </file>
@@ -1178,11 +1403,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1191,9 +1417,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1506,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4553112-A26D-C14D-AED8-4119DE26C473}">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,9 +1761,12 @@
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
     <col min="12" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="27.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="27" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1537,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>367</v>
+        <v>440</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1546,7 +1783,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>366</v>
+        <v>441</v>
       </c>
       <c r="G1" t="s">
         <v>196</v>
@@ -1572,8 +1809,20 @@
       <c r="N1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P1" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1604,11 +1853,24 @@
       <c r="M2" t="s">
         <v>214</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>367</v>
+      </c>
+      <c r="P2" s="4">
+        <v>11822484</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>45225</v>
+      </c>
+      <c r="R2" s="1">
+        <v>13</v>
+      </c>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1642,8 +1904,21 @@
       <c r="N3" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>368</v>
+      </c>
+      <c r="P3" s="4">
+        <v>12055294</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>45715</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1680,8 +1955,21 @@
       <c r="N4" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>369</v>
+      </c>
+      <c r="P4" s="4">
+        <v>12254657</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>44970</v>
+      </c>
+      <c r="R4" s="1">
+        <v>22</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1721,8 +2009,21 @@
       <c r="N5" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>370</v>
+      </c>
+      <c r="P5" s="4">
+        <v>16297862</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>45694</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1759,8 +2060,21 @@
       <c r="N6" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>371</v>
+      </c>
+      <c r="P6" s="4">
+        <v>17322873</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>46063</v>
+      </c>
+      <c r="R6" s="1">
+        <v>24</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1797,8 +2111,21 @@
       <c r="N7" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P7" s="4">
+        <v>17795222</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>46014</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1832,11 +2159,24 @@
       <c r="M8" t="s">
         <v>220</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>373</v>
+      </c>
+      <c r="P8" s="4">
+        <v>18172535</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>45762</v>
+      </c>
+      <c r="R8" s="1">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1870,8 +2210,21 @@
       <c r="N9" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>374</v>
+      </c>
+      <c r="P9" s="4">
+        <v>18284934</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>45975</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1908,8 +2261,21 @@
       <c r="N10" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>375</v>
+      </c>
+      <c r="P10" s="4">
+        <v>18371905</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>45544</v>
+      </c>
+      <c r="R10" s="1">
+        <v>35</v>
+      </c>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1946,8 +2312,21 @@
       <c r="N11" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>376</v>
+      </c>
+      <c r="P11" s="4">
+        <v>18595168</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>46174</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6</v>
+      </c>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1984,8 +2363,21 @@
       <c r="N12" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>377</v>
+      </c>
+      <c r="P12" s="4">
+        <v>19128191</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>45938</v>
+      </c>
+      <c r="R12" s="1">
+        <v>31</v>
+      </c>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2022,8 +2414,21 @@
       <c r="N13" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>378</v>
+      </c>
+      <c r="P13" s="4">
+        <v>20802616</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>45023</v>
+      </c>
+      <c r="R13" s="1">
+        <v>7</v>
+      </c>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2057,8 +2462,21 @@
       <c r="N14" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>379</v>
+      </c>
+      <c r="P14" s="4">
+        <v>21245770</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>45306</v>
+      </c>
+      <c r="R14" s="1">
+        <v>30</v>
+      </c>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2095,8 +2513,21 @@
       <c r="N15" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>380</v>
+      </c>
+      <c r="P15" s="4">
+        <v>22566047</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>45994</v>
+      </c>
+      <c r="R15" s="1">
+        <v>8</v>
+      </c>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2133,8 +2564,21 @@
       <c r="N16" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>381</v>
+      </c>
+      <c r="P16" s="4">
+        <v>22654786</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>45768</v>
+      </c>
+      <c r="R16" s="1">
+        <v>25</v>
+      </c>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2171,8 +2615,21 @@
       <c r="N17" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>382</v>
+      </c>
+      <c r="P17" s="4">
+        <v>25162782</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>45128</v>
+      </c>
+      <c r="R17" s="1">
+        <v>9</v>
+      </c>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2209,8 +2666,21 @@
       <c r="N18" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>383</v>
+      </c>
+      <c r="P18" s="4">
+        <v>28807723</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>46183</v>
+      </c>
+      <c r="R18" s="1">
+        <v>23</v>
+      </c>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2244,8 +2714,21 @@
       <c r="N19" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>384</v>
+      </c>
+      <c r="P19" s="4">
+        <v>30063649</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>45509</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10</v>
+      </c>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2282,8 +2765,21 @@
       <c r="N20" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>371</v>
+      </c>
+      <c r="P20" s="4">
+        <v>31027949</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>46001</v>
+      </c>
+      <c r="R20" s="1">
+        <v>44</v>
+      </c>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2320,8 +2816,21 @@
       <c r="N21" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>385</v>
+      </c>
+      <c r="P21" s="4">
+        <v>31789180</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>45462</v>
+      </c>
+      <c r="R21" s="1">
+        <v>11</v>
+      </c>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2358,8 +2867,21 @@
       <c r="N22" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>386</v>
+      </c>
+      <c r="P22" s="4">
+        <v>32148849</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>44980</v>
+      </c>
+      <c r="R22" s="1">
+        <v>30</v>
+      </c>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2396,8 +2918,21 @@
       <c r="N23" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>387</v>
+      </c>
+      <c r="P23" s="4">
+        <v>33498667</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>44896</v>
+      </c>
+      <c r="R23" s="1">
+        <v>12</v>
+      </c>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2434,8 +2969,21 @@
       <c r="N24" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>388</v>
+      </c>
+      <c r="P24" s="4">
+        <v>33934540</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>46175</v>
+      </c>
+      <c r="R24" s="1">
+        <v>6</v>
+      </c>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2472,8 +3020,21 @@
       <c r="N25" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>389</v>
+      </c>
+      <c r="P25" s="4">
+        <v>34264282</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>45071</v>
+      </c>
+      <c r="R25" s="1">
+        <v>13</v>
+      </c>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2510,8 +3071,21 @@
       <c r="N26" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>390</v>
+      </c>
+      <c r="P26" s="4">
+        <v>37014292</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>45147</v>
+      </c>
+      <c r="R26" s="1">
+        <v>37</v>
+      </c>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2548,8 +3122,21 @@
       <c r="N27" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>391</v>
+      </c>
+      <c r="P27" s="4">
+        <v>37627822</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>44855</v>
+      </c>
+      <c r="R27" s="1">
+        <v>14</v>
+      </c>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2589,8 +3176,21 @@
       <c r="N28" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>392</v>
+      </c>
+      <c r="P28" s="4">
+        <v>37833405</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>45313</v>
+      </c>
+      <c r="R28" s="1">
+        <v>17</v>
+      </c>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2627,8 +3227,21 @@
       <c r="N29" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>393</v>
+      </c>
+      <c r="P29" s="4">
+        <v>37974605</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>45818</v>
+      </c>
+      <c r="R29" s="1">
+        <v>15</v>
+      </c>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2668,8 +3281,21 @@
       <c r="N30" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>430</v>
+      </c>
+      <c r="P30" s="4">
+        <v>39745681</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>45562</v>
+      </c>
+      <c r="R30" s="1">
+        <v>44</v>
+      </c>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2706,8 +3332,21 @@
       <c r="N31" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>394</v>
+      </c>
+      <c r="P31" s="4">
+        <v>40836014</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>45831</v>
+      </c>
+      <c r="R31" s="1">
+        <v>16</v>
+      </c>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2744,8 +3383,21 @@
       <c r="N32" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
+        <v>395</v>
+      </c>
+      <c r="P32" s="4">
+        <v>41950672</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>45492</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
+      </c>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2782,8 +3434,21 @@
       <c r="N33" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
+        <v>396</v>
+      </c>
+      <c r="P33" s="4">
+        <v>41957130</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>45000</v>
+      </c>
+      <c r="R33" s="1">
+        <v>17</v>
+      </c>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2820,8 +3485,21 @@
       <c r="N34" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" t="s">
+        <v>397</v>
+      </c>
+      <c r="P34" s="4">
+        <v>43463966</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>45134</v>
+      </c>
+      <c r="R34" s="1">
+        <v>43</v>
+      </c>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2858,8 +3536,21 @@
       <c r="N35" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" t="s">
+        <v>398</v>
+      </c>
+      <c r="P35" s="4">
+        <v>46634986</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>45797</v>
+      </c>
+      <c r="R35" s="1">
+        <v>18</v>
+      </c>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2896,8 +3587,21 @@
       <c r="N36" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" t="s">
+        <v>431</v>
+      </c>
+      <c r="P36" s="4">
+        <v>48448435</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>44847</v>
+      </c>
+      <c r="R36" s="1">
+        <v>48</v>
+      </c>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2931,8 +3635,21 @@
       <c r="N37" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" t="s">
+        <v>399</v>
+      </c>
+      <c r="P37" s="4">
+        <v>48699825</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>45239</v>
+      </c>
+      <c r="R37" s="1">
+        <v>19</v>
+      </c>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2972,8 +3689,21 @@
       <c r="N38" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" t="s">
+        <v>400</v>
+      </c>
+      <c r="P38" s="4">
+        <v>50604707</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>45623</v>
+      </c>
+      <c r="R38" s="1">
+        <v>9</v>
+      </c>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3010,8 +3740,21 @@
       <c r="N39" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" t="s">
+        <v>400</v>
+      </c>
+      <c r="P39" s="4">
+        <v>50710108</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>45939</v>
+      </c>
+      <c r="R39" s="1">
+        <v>20</v>
+      </c>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3048,8 +3791,21 @@
       <c r="N40" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" t="s">
+        <v>401</v>
+      </c>
+      <c r="P40" s="4">
+        <v>51280550</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>45448</v>
+      </c>
+      <c r="R40" s="1">
+        <v>29</v>
+      </c>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3086,8 +3842,21 @@
       <c r="N41" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" t="s">
+        <v>402</v>
+      </c>
+      <c r="P41" s="4">
+        <v>52941154</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>45251</v>
+      </c>
+      <c r="R41" s="1">
+        <v>21</v>
+      </c>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3124,8 +3893,21 @@
       <c r="N42" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
+        <v>432</v>
+      </c>
+      <c r="P42" s="4">
+        <v>54446070</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>44995</v>
+      </c>
+      <c r="R42" s="1">
+        <v>50</v>
+      </c>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3162,8 +3944,21 @@
       <c r="N43" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>403</v>
+      </c>
+      <c r="P43" s="4">
+        <v>54823939</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>46010</v>
+      </c>
+      <c r="R43" s="1">
+        <v>22</v>
+      </c>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3200,8 +3995,21 @@
       <c r="N44" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>385</v>
+      </c>
+      <c r="P44" s="4">
+        <v>57379100</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>45828</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3238,8 +4046,21 @@
       <c r="N45" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>404</v>
+      </c>
+      <c r="P45" s="4">
+        <v>59092522</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>45288</v>
+      </c>
+      <c r="R45" s="1">
+        <v>23</v>
+      </c>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3273,8 +4094,21 @@
       <c r="N46" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" t="s">
+        <v>433</v>
+      </c>
+      <c r="P46" s="4">
+        <v>59382119</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>45111</v>
+      </c>
+      <c r="R46" s="1">
+        <v>20</v>
+      </c>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3308,8 +4142,21 @@
       <c r="N47" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" t="s">
+        <v>405</v>
+      </c>
+      <c r="P47" s="4">
+        <v>61826190</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>46099</v>
+      </c>
+      <c r="R47" s="1">
+        <v>24</v>
+      </c>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3343,8 +4190,21 @@
       <c r="N48" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" t="s">
+        <v>434</v>
+      </c>
+      <c r="P48" s="4">
+        <v>62122928</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>45520</v>
+      </c>
+      <c r="R48" s="1">
+        <v>17</v>
+      </c>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3381,8 +4241,21 @@
       <c r="N49" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" t="s">
+        <v>406</v>
+      </c>
+      <c r="P49" s="4">
+        <v>62357323</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>45281</v>
+      </c>
+      <c r="R49" s="1">
+        <v>25</v>
+      </c>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3419,8 +4292,21 @@
       <c r="N50" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" t="s">
+        <v>435</v>
+      </c>
+      <c r="P50" s="4">
+        <v>65276201</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>45210</v>
+      </c>
+      <c r="R50" s="1">
+        <v>5</v>
+      </c>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3457,8 +4343,21 @@
       <c r="N51" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" t="s">
+        <v>385</v>
+      </c>
+      <c r="P51" s="4">
+        <v>65700118</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>45209</v>
+      </c>
+      <c r="R51" s="1">
+        <v>26</v>
+      </c>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3498,8 +4397,21 @@
       <c r="N52" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" t="s">
+        <v>407</v>
+      </c>
+      <c r="P52" s="4">
+        <v>65941581</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>46007</v>
+      </c>
+      <c r="R52" s="1">
+        <v>42</v>
+      </c>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3536,8 +4448,21 @@
       <c r="N53" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" t="s">
+        <v>408</v>
+      </c>
+      <c r="P53" s="4">
+        <v>66277993</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>45890</v>
+      </c>
+      <c r="R53" s="1">
+        <v>27</v>
+      </c>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3574,8 +4499,21 @@
       <c r="N54" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" t="s">
+        <v>409</v>
+      </c>
+      <c r="P54" s="4">
+        <v>66997059</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>45519</v>
+      </c>
+      <c r="R54" s="1">
+        <v>3</v>
+      </c>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3612,8 +4550,21 @@
       <c r="N55" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" t="s">
+        <v>436</v>
+      </c>
+      <c r="P55" s="4">
+        <v>68449437</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>45971</v>
+      </c>
+      <c r="R55" s="1">
+        <v>28</v>
+      </c>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3650,8 +4601,21 @@
       <c r="N56" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" t="s">
+        <v>410</v>
+      </c>
+      <c r="P56" s="4">
+        <v>70006969</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>46041</v>
+      </c>
+      <c r="R56" s="1">
+        <v>17</v>
+      </c>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3688,8 +4652,21 @@
       <c r="N57" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" t="s">
+        <v>411</v>
+      </c>
+      <c r="P57" s="4">
+        <v>70380990</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>45926</v>
+      </c>
+      <c r="R57" s="1">
+        <v>29</v>
+      </c>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3726,8 +4703,21 @@
       <c r="N58" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>412</v>
+      </c>
+      <c r="P58" s="4">
+        <v>70598632</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>45706</v>
+      </c>
+      <c r="R58" s="1">
+        <v>5</v>
+      </c>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3767,8 +4757,21 @@
       <c r="N59" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" t="s">
+        <v>413</v>
+      </c>
+      <c r="P59" s="4">
+        <v>71377994</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>44867</v>
+      </c>
+      <c r="R59" s="1">
+        <v>30</v>
+      </c>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3805,8 +4808,21 @@
       <c r="N60" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" t="s">
+        <v>414</v>
+      </c>
+      <c r="P60" s="4">
+        <v>73457641</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>46022</v>
+      </c>
+      <c r="R60" s="1">
+        <v>3</v>
+      </c>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3843,8 +4859,21 @@
       <c r="N61" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" t="s">
+        <v>415</v>
+      </c>
+      <c r="P61" s="4">
+        <v>75512282</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>45861</v>
+      </c>
+      <c r="R61" s="1">
+        <v>31</v>
+      </c>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3881,8 +4910,21 @@
       <c r="N62" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" t="s">
+        <v>417</v>
+      </c>
+      <c r="P62" s="4">
+        <v>79485523</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>46015</v>
+      </c>
+      <c r="R62" s="1">
+        <v>8</v>
+      </c>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3919,8 +4961,21 @@
       <c r="N63" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" t="s">
+        <v>416</v>
+      </c>
+      <c r="P63" s="4">
+        <v>81509908</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>45530</v>
+      </c>
+      <c r="R63" s="1">
+        <v>32</v>
+      </c>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3957,8 +5012,21 @@
       <c r="N64" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" t="s">
+        <v>418</v>
+      </c>
+      <c r="P64" s="4">
+        <v>83947540</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>44945</v>
+      </c>
+      <c r="R64" s="1">
+        <v>40</v>
+      </c>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3992,8 +5060,21 @@
       <c r="N65" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" t="s">
+        <v>419</v>
+      </c>
+      <c r="P65" s="4">
+        <v>84107774</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>44859</v>
+      </c>
+      <c r="R65" s="1">
+        <v>33</v>
+      </c>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4030,8 +5111,21 @@
       <c r="N66" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" t="s">
+        <v>420</v>
+      </c>
+      <c r="P66" s="4">
+        <v>84291047</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>45084</v>
+      </c>
+      <c r="R66" s="1">
+        <v>8</v>
+      </c>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4065,8 +5159,21 @@
       <c r="N67" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" t="s">
+        <v>421</v>
+      </c>
+      <c r="P67" s="4">
+        <v>85807361</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>44998</v>
+      </c>
+      <c r="R67" s="1">
+        <v>34</v>
+      </c>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4103,8 +5210,21 @@
       <c r="N68" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>422</v>
+      </c>
+      <c r="P68" s="4">
+        <v>87972805</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>46147</v>
+      </c>
+      <c r="R68" s="1">
+        <v>9</v>
+      </c>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4141,8 +5261,21 @@
       <c r="N69" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" t="s">
+        <v>423</v>
+      </c>
+      <c r="P69" s="4">
+        <v>88897500</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>45761</v>
+      </c>
+      <c r="R69" s="1">
+        <v>35</v>
+      </c>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4179,8 +5312,21 @@
       <c r="N70" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" t="s">
+        <v>371</v>
+      </c>
+      <c r="P70" s="4">
+        <v>89052173</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>44839</v>
+      </c>
+      <c r="R70" s="1">
+        <v>31</v>
+      </c>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4217,8 +5363,21 @@
       <c r="N71" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" t="s">
+        <v>424</v>
+      </c>
+      <c r="P71" s="4">
+        <v>90551996</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>45631</v>
+      </c>
+      <c r="R71" s="1">
+        <v>36</v>
+      </c>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4255,8 +5414,21 @@
       <c r="N72" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" t="s">
+        <v>425</v>
+      </c>
+      <c r="P72" s="4">
+        <v>93280059</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>44816</v>
+      </c>
+      <c r="R72" s="1">
+        <v>28</v>
+      </c>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4293,8 +5465,21 @@
       <c r="N73" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" t="s">
+        <v>426</v>
+      </c>
+      <c r="P73" s="4">
+        <v>93724153</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>45775</v>
+      </c>
+      <c r="R73" s="1">
+        <v>37</v>
+      </c>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4328,8 +5513,21 @@
       <c r="N74" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
+        <v>427</v>
+      </c>
+      <c r="P74" s="4">
+        <v>94005496</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>46169</v>
+      </c>
+      <c r="R74" s="1">
+        <v>37</v>
+      </c>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4366,8 +5564,21 @@
       <c r="N75" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" t="s">
+        <v>428</v>
+      </c>
+      <c r="P75" s="4">
+        <v>96425416</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>45740</v>
+      </c>
+      <c r="R75" s="1">
+        <v>38</v>
+      </c>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4404,25 +5615,141 @@
       <c r="N76" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" t="s">
+        <v>429</v>
+      </c>
+      <c r="P76" s="4">
+        <v>99375666</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>45572</v>
+      </c>
+      <c r="R76" s="1">
+        <v>43</v>
+      </c>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P77" s="4"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="N78" s="3"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P78" s="4"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="N79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P79" s="4"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P80" s="4"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P82" s="4"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P83" s="4"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P84" s="4"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P85" s="4"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P86" s="4"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q104" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
